--- a/Pokemon Go.xlsx
+++ b/Pokemon Go.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabF\Desktop\RedFox test\teste-desenvolvimento-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B18AF73-F240-4596-AA83-2549410B6687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5022B66-A55B-40E6-BDB3-3D190B3E1719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3114,7 +3114,7 @@
   </sheetPr>
   <dimension ref="A1:AD823"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A816" workbookViewId="0">
       <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
